--- a/data/trans_orig/P05A01-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>229955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>208406</v>
+        <v>207937</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>252311</v>
+        <v>251930</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4862328088606029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4406676465336698</v>
+        <v>0.4396758159548609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5335035295899901</v>
+        <v>0.5326977585278626</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>144</v>
@@ -765,19 +765,19 @@
         <v>150089</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132718</v>
+        <v>132954</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>168394</v>
+        <v>167483</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4894007870485646</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4327585481718042</v>
+        <v>0.4335276091893772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5490869085806597</v>
+        <v>0.5461164479779239</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>368</v>
@@ -786,19 +786,19 @@
         <v>380044</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>351381</v>
+        <v>351787</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>408344</v>
+        <v>411129</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4874790137204115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4507130062761633</v>
+        <v>0.4512340157546904</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5237787618678402</v>
+        <v>0.52735070884734</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>176946</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>154560</v>
+        <v>153650</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198669</v>
+        <v>199404</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3741463164384675</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3268117977555081</v>
+        <v>0.324887701601781</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4200786971193806</v>
+        <v>0.4216345634286467</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>115</v>
@@ -836,19 +836,19 @@
         <v>116815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>101021</v>
+        <v>99557</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>135685</v>
+        <v>134129</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3809023821494138</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.329400579108916</v>
+        <v>0.3246297194408589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4424311998399906</v>
+        <v>0.4373568618434628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>284</v>
@@ -857,19 +857,19 @@
         <v>293761</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>266753</v>
+        <v>265619</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>320507</v>
+        <v>317732</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3768039868587251</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3421608615897698</v>
+        <v>0.3407066500971259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4111105542287297</v>
+        <v>0.4075510772569667</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>66031</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52402</v>
+        <v>52341</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83029</v>
+        <v>85600</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1396208747009296</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1108029706599997</v>
+        <v>0.1106738387823275</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1755627659429065</v>
+        <v>0.1809986192398383</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -907,19 +907,19 @@
         <v>39775</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>28521</v>
+        <v>27729</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51813</v>
+        <v>51851</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1296968308020216</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09299853267198481</v>
+        <v>0.09041818585790809</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1689472650433251</v>
+        <v>0.1690710507965602</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>100</v>
@@ -928,19 +928,19 @@
         <v>105807</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>88316</v>
+        <v>89549</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>129840</v>
+        <v>131280</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1357169994208634</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1132821472014492</v>
+        <v>0.1148640852302305</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1665443878015436</v>
+        <v>0.1683910309935677</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>193633</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174282</v>
+        <v>172816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>213624</v>
+        <v>214775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5277048169470052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4749694829439078</v>
+        <v>0.4709738290877201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5821863947837613</v>
+        <v>0.5853245871465819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -1053,19 +1053,19 @@
         <v>175844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>157963</v>
+        <v>157666</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>195652</v>
+        <v>193728</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4741310557693605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4259197058086741</v>
+        <v>0.4251170955112357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5275405105827988</v>
+        <v>0.5223518519498626</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>353</v>
@@ -1074,19 +1074,19 @@
         <v>369477</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>337431</v>
+        <v>341460</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>396943</v>
+        <v>397439</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5007748058371331</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4573403137825268</v>
+        <v>0.4628009124104469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.538000492515433</v>
+        <v>0.5386726265375582</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>136722</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>118298</v>
+        <v>117855</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>157012</v>
+        <v>157153</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3726057725886668</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3223956877087825</v>
+        <v>0.3211887679145793</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4279020145293725</v>
+        <v>0.4282855159962461</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>141</v>
@@ -1124,19 +1124,19 @@
         <v>145980</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128321</v>
+        <v>128838</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>164856</v>
+        <v>166149</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3936097843638539</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3459935672986159</v>
+        <v>0.3473870467194203</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.444504036824622</v>
+        <v>0.4479898722647392</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>277</v>
@@ -1145,19 +1145,19 @@
         <v>282703</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>257525</v>
+        <v>259879</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>311130</v>
+        <v>311847</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3831638939156738</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.349039378417021</v>
+        <v>0.3522294418752537</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4216933215168392</v>
+        <v>0.4226649405775063</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>36579</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25759</v>
+        <v>25830</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50079</v>
+        <v>49471</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09968941046432804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07020105357215636</v>
+        <v>0.07039460371693414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.136479503895827</v>
+        <v>0.1348228546280328</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1195,19 +1195,19 @@
         <v>49052</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36466</v>
+        <v>36476</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61880</v>
+        <v>62719</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1322591598667855</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09832443339103793</v>
+        <v>0.0983512090207796</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1668469789741181</v>
+        <v>0.1691105124074546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>82</v>
@@ -1216,19 +1216,19 @@
         <v>85631</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>68798</v>
+        <v>69177</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105550</v>
+        <v>104328</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1160613002471931</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09324544604020381</v>
+        <v>0.09376046126451743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1430582199131568</v>
+        <v>0.1414026365028163</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>281883</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>258495</v>
+        <v>257443</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>305546</v>
+        <v>304544</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5197064945478357</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4765852749736016</v>
+        <v>0.4746464463446488</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5633332970683027</v>
+        <v>0.5614857953552956</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>87</v>
@@ -1341,19 +1341,19 @@
         <v>90021</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>77623</v>
+        <v>77233</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>104163</v>
+        <v>103142</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5365365736198985</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4626444680704276</v>
+        <v>0.4603158227192996</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.620825321760584</v>
+        <v>0.6147380284614578</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>361</v>
@@ -1362,19 +1362,19 @@
         <v>371904</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>345398</v>
+        <v>348294</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>397166</v>
+        <v>400365</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5236826957222626</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4863594023078578</v>
+        <v>0.4904368632317119</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5592537354408942</v>
+        <v>0.563758765437557</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>208572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>187379</v>
+        <v>185819</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>232723</v>
+        <v>232618</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3845425658206661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.345469827537225</v>
+        <v>0.3425936774478295</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4290702021170679</v>
+        <v>0.4288769137280335</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -1412,19 +1412,19 @@
         <v>47787</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36274</v>
+        <v>35775</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60675</v>
+        <v>59431</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2848181954022274</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2161989195828799</v>
+        <v>0.2132238064350838</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3616299908482013</v>
+        <v>0.3542176114007844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>256</v>
@@ -1433,19 +1433,19 @@
         <v>256359</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>230460</v>
+        <v>231073</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>279586</v>
+        <v>281387</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3609821204371987</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.324513225158461</v>
+        <v>0.3253764857267493</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3936877295472442</v>
+        <v>0.3962245934799926</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>51934</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38815</v>
+        <v>40026</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66458</v>
+        <v>67661</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09575093963149812</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07156359658907437</v>
+        <v>0.07379492523187184</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1225287945430775</v>
+        <v>0.1247464883711145</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1483,19 +1483,19 @@
         <v>29973</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20504</v>
+        <v>20744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39579</v>
+        <v>41164</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1786452309778741</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1222039986844288</v>
+        <v>0.1236350279526621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2358954490890295</v>
+        <v>0.2453399604715912</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>79</v>
@@ -1504,19 +1504,19 @@
         <v>81908</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>65190</v>
+        <v>65843</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>101242</v>
+        <v>100200</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1153351838405388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09179527486857919</v>
+        <v>0.09271374710128022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1425603352666826</v>
+        <v>0.1410925244440739</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>638948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>602695</v>
+        <v>604134</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>672111</v>
+        <v>673802</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5163361995100921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4870395972161527</v>
+        <v>0.4882029007567209</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5431345510885797</v>
+        <v>0.5445016691150114</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>338</v>
@@ -1629,19 +1629,19 @@
         <v>350310</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>322362</v>
+        <v>323194</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>378498</v>
+        <v>377488</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4911053579941402</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4519242844573272</v>
+        <v>0.4530911206350388</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5306230052193787</v>
+        <v>0.5292062502117806</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>966</v>
@@ -1650,19 +1650,19 @@
         <v>989258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>943545</v>
+        <v>944468</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1033615</v>
+        <v>1034801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5071104389382776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4836770383077082</v>
+        <v>0.484150329440506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5298484471068532</v>
+        <v>0.5304562369615849</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>483515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>450937</v>
+        <v>451183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>518023</v>
+        <v>520830</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3907301099043995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3644035095710529</v>
+        <v>0.3646027349374489</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4186162433280494</v>
+        <v>0.4208841284537993</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>249</v>
@@ -1700,19 +1700,19 @@
         <v>255364</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>228847</v>
+        <v>232060</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>283796</v>
+        <v>280163</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3579987805420112</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3208246157670148</v>
+        <v>0.3253288240312763</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.397858588751608</v>
+        <v>0.3927655964457822</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>732</v>
@@ -1721,19 +1721,19 @@
         <v>738879</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>695631</v>
+        <v>695968</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>781858</v>
+        <v>782390</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3787617652218141</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3565919795868405</v>
+        <v>0.356764759514068</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.400793631690371</v>
+        <v>0.4010663547946042</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>115002</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>93484</v>
+        <v>96104</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135932</v>
+        <v>137460</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09293369058550828</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07554430931818172</v>
+        <v>0.07766201822625615</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1098474030444523</v>
+        <v>0.111081769798219</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>106</v>
@@ -1771,19 +1771,19 @@
         <v>107635</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>89800</v>
+        <v>91964</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>128099</v>
+        <v>129652</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1508958614638486</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1258918501938414</v>
+        <v>0.1289259557580316</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1795842337315982</v>
+        <v>0.1817608185283509</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>218</v>
@@ -1792,19 +1792,19 @@
         <v>222638</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>195091</v>
+        <v>193399</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>250732</v>
+        <v>248319</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1141277958399083</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1000069029406616</v>
+        <v>0.09913975270283432</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1285292703669378</v>
+        <v>0.1272926675428837</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>210746</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>191424</v>
+        <v>190471</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>228172</v>
+        <v>228779</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6011789369681311</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5460601010340457</v>
+        <v>0.5433410720443675</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6508873926392442</v>
+        <v>0.6526183324457304</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>279</v>
@@ -1917,19 +1917,19 @@
         <v>295805</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>269283</v>
+        <v>271041</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>320458</v>
+        <v>319928</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5209478315653476</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4742403825446346</v>
+        <v>0.4773369708623955</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5643659071213136</v>
+        <v>0.5634325372329863</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>482</v>
@@ -1938,19 +1938,19 @@
         <v>506551</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>477827</v>
+        <v>474351</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>538219</v>
+        <v>536729</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5515730446765853</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5202958454555626</v>
+        <v>0.5165112293782179</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5860554444696279</v>
+        <v>0.5844338664646082</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>104702</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>88307</v>
+        <v>88805</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>122420</v>
+        <v>123237</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.298674915484715</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2519076666084575</v>
+        <v>0.2533273535334819</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3492173844842391</v>
+        <v>0.3515484843470573</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>191</v>
@@ -1988,19 +1988,19 @@
         <v>199758</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>176114</v>
+        <v>176412</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>224338</v>
+        <v>222608</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3517983426951484</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3101585640031448</v>
+        <v>0.3106827236430343</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3950871363042283</v>
+        <v>0.3920396160639951</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>295</v>
@@ -2009,19 +2009,19 @@
         <v>304460</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>274907</v>
+        <v>275892</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>332522</v>
+        <v>333657</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3315204682803407</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2993410390798741</v>
+        <v>0.3004133648741434</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.362076936331917</v>
+        <v>0.3633119500220688</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>35107</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24183</v>
+        <v>24184</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47782</v>
+        <v>47774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1001461475471539</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06898472008827501</v>
+        <v>0.06898724387909923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1363038945964503</v>
+        <v>0.1362805350752554</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -2059,19 +2059,19 @@
         <v>72257</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57722</v>
+        <v>56017</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90374</v>
+        <v>89660</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.127253825739504</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1016558109382442</v>
+        <v>0.09865226505373784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.15915886430728</v>
+        <v>0.1579018067403423</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>101</v>
@@ -2080,19 +2080,19 @@
         <v>107364</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88031</v>
+        <v>89285</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>128641</v>
+        <v>127347</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.116906487043074</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09585541156475193</v>
+        <v>0.09722056586146686</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1400750768615474</v>
+        <v>0.138665429427645</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>171789</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>155155</v>
+        <v>157235</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>187745</v>
+        <v>191064</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5760849224651929</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5203038349212545</v>
+        <v>0.5272769771042111</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6295928223045753</v>
+        <v>0.6407210108614426</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>629</v>
@@ -2205,19 +2205,19 @@
         <v>635611</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>603593</v>
+        <v>597484</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>672479</v>
+        <v>670840</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.509373526056773</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4837151633152154</v>
+        <v>0.4788190613154309</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5389198241255226</v>
+        <v>0.5376064045867717</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>802</v>
@@ -2226,19 +2226,19 @@
         <v>807400</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>767267</v>
+        <v>768012</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>845661</v>
+        <v>845758</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5222409303202662</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4962823265246823</v>
+        <v>0.4967639754768322</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5469893773093131</v>
+        <v>0.5470517053281626</v>
       </c>
     </row>
     <row r="25">
@@ -2255,19 +2255,19 @@
         <v>104005</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89201</v>
+        <v>86945</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119919</v>
+        <v>119633</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3487735292626121</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.299129030533142</v>
+        <v>0.2915664531046314</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4021410505884707</v>
+        <v>0.4011812393277518</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>452</v>
@@ -2276,19 +2276,19 @@
         <v>456062</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>423274</v>
+        <v>422903</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>489965</v>
+        <v>491292</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3654849407881516</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3392086737948308</v>
+        <v>0.3389109626887331</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3926542344725223</v>
+        <v>0.3937179667180336</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>561</v>
@@ -2297,19 +2297,19 @@
         <v>560067</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>520824</v>
+        <v>522989</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>595868</v>
+        <v>597940</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3622616161466428</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3368786771998196</v>
+        <v>0.3382785894419559</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3854183087320939</v>
+        <v>0.3867584107136969</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>22407</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>14166</v>
+        <v>15031</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>31733</v>
+        <v>32461</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.07514154827219502</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04750353502825692</v>
+        <v>0.05040673326245211</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1064163520114274</v>
+        <v>0.1088559741107234</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>156</v>
@@ -2347,19 +2347,19 @@
         <v>156155</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>133624</v>
+        <v>133505</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>179439</v>
+        <v>179103</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1251415331550755</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1070849413171406</v>
+        <v>0.1069902797619565</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1438013393078026</v>
+        <v>0.1435318901382669</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>180</v>
@@ -2368,19 +2368,19 @@
         <v>178562</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>154484</v>
+        <v>154904</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>204277</v>
+        <v>203743</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1154974535330909</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0999232542960214</v>
+        <v>0.1001949770920368</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1321298364502922</v>
+        <v>0.131784998847056</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>1726955</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1663622</v>
+        <v>1672034</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1782647</v>
+        <v>1784857</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5283668325947479</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5089898979317343</v>
+        <v>0.5115635033970903</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5454058866255429</v>
+        <v>0.5460821502830432</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1651</v>
@@ -2493,19 +2493,19 @@
         <v>1697680</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1637899</v>
+        <v>1641338</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1758024</v>
+        <v>1762861</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5031212260863318</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4854046607603524</v>
+        <v>0.4864239193527303</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.521004753882902</v>
+        <v>0.5224381244566928</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3332</v>
@@ -2514,19 +2514,19 @@
         <v>3424635</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3333799</v>
+        <v>3349063</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3503857</v>
+        <v>3507884</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5155429504727407</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.501868520872121</v>
+        <v>0.5041664241613013</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5274690797514318</v>
+        <v>0.5280752587459085</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>1214461</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1160798</v>
+        <v>1154892</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1277333</v>
+        <v>1268779</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3715678537124759</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3551493935581606</v>
+        <v>0.3533425266612872</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3908035660865917</v>
+        <v>0.3881865373521547</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1196</v>
@@ -2564,19 +2564,19 @@
         <v>1221768</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1167439</v>
+        <v>1164568</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1278840</v>
+        <v>1277966</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3620807268184251</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3459799621246177</v>
+        <v>0.3451291751061545</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3789945523531379</v>
+        <v>0.3787356388013776</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2405</v>
@@ -2585,19 +2585,19 @@
         <v>2436229</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2356444</v>
+        <v>2362958</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2521204</v>
+        <v>2518195</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3667487261971487</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3547380531076678</v>
+        <v>0.3557185576099287</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3795409216164592</v>
+        <v>0.3790879256412021</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>327061</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>292059</v>
+        <v>294403</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>361424</v>
+        <v>368575</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1000653136927762</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08935634360561219</v>
+        <v>0.09007337612347632</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1105785830303013</v>
+        <v>0.1127665593801193</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>445</v>
@@ -2635,19 +2635,19 @@
         <v>454849</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>416474</v>
+        <v>417937</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>497166</v>
+        <v>493670</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1347980470952431</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1234255021667135</v>
+        <v>0.1238589284436495</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1473392215956667</v>
+        <v>0.146303048158596</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>760</v>
@@ -2656,19 +2656,19 @@
         <v>781910</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>730770</v>
+        <v>733700</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>840660</v>
+        <v>837402</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1177083233301107</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1100098195233837</v>
+        <v>0.1104507866888849</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1265524983170553</v>
+        <v>0.1260621305533111</v>
       </c>
     </row>
     <row r="31">
@@ -3002,19 +3002,19 @@
         <v>278410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>259656</v>
+        <v>258229</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299983</v>
+        <v>297413</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6367853880600497</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5938911720082287</v>
+        <v>0.5906268447747034</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6861297248848424</v>
+        <v>0.6802495384962861</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>205</v>
@@ -3023,19 +3023,19 @@
         <v>228436</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>210253</v>
+        <v>210123</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245438</v>
+        <v>243597</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.726453710475791</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6686291584782625</v>
+        <v>0.668214593009418</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7805209344260682</v>
+        <v>0.774666503236215</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>457</v>
@@ -3044,19 +3044,19 @@
         <v>506846</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>479133</v>
+        <v>480834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>532738</v>
+        <v>535451</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.674297556633367</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6374289358603709</v>
+        <v>0.6396917251157953</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7087435952766912</v>
+        <v>0.7123526938263617</v>
       </c>
     </row>
     <row r="5">
@@ -3073,19 +3073,19 @@
         <v>125234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104955</v>
+        <v>106783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144079</v>
+        <v>144558</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2864378159634723</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2400563609999893</v>
+        <v>0.2442368220670652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3295414498506857</v>
+        <v>0.3306372530248799</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>58</v>
@@ -3094,19 +3094,19 @@
         <v>66209</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50374</v>
+        <v>51471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82725</v>
+        <v>81933</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2105511733417747</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1601944661899782</v>
+        <v>0.1636827180250987</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2630765984793877</v>
+        <v>0.2605565786436203</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>177</v>
@@ -3115,19 +3115,19 @@
         <v>191442</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>167678</v>
+        <v>166220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216620</v>
+        <v>215967</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2546911248935781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2230759887497458</v>
+        <v>0.2211355088884892</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2881872401727786</v>
+        <v>0.2873187461347486</v>
       </c>
     </row>
     <row r="6">
@@ -3144,19 +3144,19 @@
         <v>33568</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23211</v>
+        <v>23021</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46081</v>
+        <v>46443</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07677679597647798</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0530883942447873</v>
+        <v>0.05265373446161688</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1053985270633354</v>
+        <v>0.1062256197473829</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -3165,19 +3165,19 @@
         <v>19809</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12202</v>
+        <v>12842</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29718</v>
+        <v>30117</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06299511618243432</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03880475192772676</v>
+        <v>0.04083977786844753</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09450529220231638</v>
+        <v>0.09577676845725792</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>53</v>
@@ -3186,19 +3186,19 @@
         <v>53377</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39755</v>
+        <v>39906</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>68437</v>
+        <v>68604</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07101131847305488</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05288897338172325</v>
+        <v>0.05309003313591217</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09104707566399446</v>
+        <v>0.09126898620049792</v>
       </c>
     </row>
     <row r="7">
@@ -3290,19 +3290,19 @@
         <v>278177</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>257359</v>
+        <v>256100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>298925</v>
+        <v>298161</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6642291605224329</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6145192623505258</v>
+        <v>0.6115125022424009</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7137697615203038</v>
+        <v>0.71194716000828</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>209</v>
@@ -3311,19 +3311,19 @@
         <v>232650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>212827</v>
+        <v>216276</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>250129</v>
+        <v>249401</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6918105216556449</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6328642858033431</v>
+        <v>0.6431189882172947</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7437848581448727</v>
+        <v>0.7416190815564029</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>458</v>
@@ -3332,19 +3332,19 @@
         <v>510828</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>482477</v>
+        <v>481057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>535169</v>
+        <v>537209</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6765130006879656</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6389674837037296</v>
+        <v>0.6370868238831464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7087493617235305</v>
+        <v>0.7114513402414145</v>
       </c>
     </row>
     <row r="9">
@@ -3361,19 +3361,19 @@
         <v>115049</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>97415</v>
+        <v>97276</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>135697</v>
+        <v>135474</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2747120314127716</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2326060859545352</v>
+        <v>0.23227480010322</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3240168547730262</v>
+        <v>0.3234830113276968</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -3382,19 +3382,19 @@
         <v>72617</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>58041</v>
+        <v>57472</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>90681</v>
+        <v>87196</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2159346807634429</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1725906771047856</v>
+        <v>0.1708978308475157</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2696494821525287</v>
+        <v>0.2592862086681129</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>174</v>
@@ -3403,19 +3403,19 @@
         <v>187666</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>165282</v>
+        <v>163507</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>214791</v>
+        <v>213785</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2485345132967271</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.218891087561955</v>
+        <v>0.2165405630869909</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2844578260429376</v>
+        <v>0.2831259471182284</v>
       </c>
     </row>
     <row r="10">
@@ -3432,19 +3432,19 @@
         <v>25571</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15907</v>
+        <v>16002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40277</v>
+        <v>39183</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06105880806479557</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03798144277890268</v>
+        <v>0.03820859952004924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0961736961090761</v>
+        <v>0.09356154435765854</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -3453,19 +3453,19 @@
         <v>31025</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20951</v>
+        <v>20991</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43595</v>
+        <v>44057</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09225479758091221</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0623013699888599</v>
+        <v>0.0624201321070161</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1296340226943896</v>
+        <v>0.1310080395817768</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>47</v>
@@ -3474,19 +3474,19 @@
         <v>56596</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41999</v>
+        <v>42101</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75401</v>
+        <v>75221</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07495248601530732</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05562124549794958</v>
+        <v>0.05575574226813713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09985746794809637</v>
+        <v>0.09961821630662519</v>
       </c>
     </row>
     <row r="11">
@@ -3578,19 +3578,19 @@
         <v>432515</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>406058</v>
+        <v>409625</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>455333</v>
+        <v>456710</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6898423989563078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6476446300768574</v>
+        <v>0.6533340261780083</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7262358457031509</v>
+        <v>0.7284314653975453</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>167</v>
@@ -3599,19 +3599,19 @@
         <v>177622</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>162012</v>
+        <v>162383</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>191700</v>
+        <v>192657</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6854925914986728</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6252487379854246</v>
+        <v>0.6266803015318362</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7398219774139351</v>
+        <v>0.743515846133606</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>575</v>
@@ -3620,19 +3620,19 @@
         <v>610137</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>580166</v>
+        <v>579865</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>637635</v>
+        <v>638112</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6885704059793371</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6547460833987061</v>
+        <v>0.6544061445081201</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7196026983772972</v>
+        <v>0.7201412259077405</v>
       </c>
     </row>
     <row r="13">
@@ -3649,19 +3649,19 @@
         <v>154783</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133467</v>
+        <v>132349</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>179368</v>
+        <v>176981</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2468725198035573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2128737605566797</v>
+        <v>0.2110913258932579</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2860835082007541</v>
+        <v>0.2822773583559447</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -3670,19 +3670,19 @@
         <v>58570</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46285</v>
+        <v>44836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72434</v>
+        <v>72473</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2260387315963399</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1786250234864485</v>
+        <v>0.1730350640502907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2795413767129326</v>
+        <v>0.2796932993169919</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>200</v>
@@ -3691,19 +3691,19 @@
         <v>213354</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>187164</v>
+        <v>187652</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238759</v>
+        <v>240586</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2407801967429667</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2112243591897849</v>
+        <v>0.2117750880540038</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2694513318262289</v>
+        <v>0.2715127220559182</v>
       </c>
     </row>
     <row r="14">
@@ -3720,19 +3720,19 @@
         <v>39678</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29013</v>
+        <v>27921</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56139</v>
+        <v>54259</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06328508124013482</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04627462534922844</v>
+        <v>0.04453289788156679</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08953849660485924</v>
+        <v>0.08653990663447748</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -3741,19 +3741,19 @@
         <v>22924</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14673</v>
+        <v>14927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>34334</v>
+        <v>34702</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08846867690498726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05662824684941355</v>
+        <v>0.05760926408400839</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1325051154824965</v>
+        <v>0.1339248655248488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -3762,19 +3762,19 @@
         <v>62602</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48874</v>
+        <v>48528</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>84121</v>
+        <v>79410</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07064939727769627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05515701036558154</v>
+        <v>0.05476638408187048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09493441398121244</v>
+        <v>0.08961839264614146</v>
       </c>
     </row>
     <row r="15">
@@ -3866,19 +3866,19 @@
         <v>808391</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>776523</v>
+        <v>776936</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>839179</v>
+        <v>841214</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.699821200113795</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6722332164811096</v>
+        <v>0.6725907866225942</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7264747808738343</v>
+        <v>0.7282360258558996</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>502</v>
@@ -3887,19 +3887,19 @@
         <v>537145</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>510409</v>
+        <v>510473</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>562849</v>
+        <v>563126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7016031540422134</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6666809066514962</v>
+        <v>0.666764399472199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.735176443181852</v>
+        <v>0.7355380186470275</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1257</v>
@@ -3908,19 +3908,19 @@
         <v>1345535</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1304581</v>
+        <v>1304534</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1386377</v>
+        <v>1387518</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7005314792924227</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6792095099187446</v>
+        <v>0.6791846405977584</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7217952243771368</v>
+        <v>0.7223892343711478</v>
       </c>
     </row>
     <row r="17">
@@ -3937,19 +3937,19 @@
         <v>272008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>243774</v>
+        <v>241701</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>302548</v>
+        <v>304585</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2354760670234551</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2110342427209312</v>
+        <v>0.2092394064116742</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2619148450734026</v>
+        <v>0.2636779940208103</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>164</v>
@@ -3958,19 +3958,19 @@
         <v>178657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154649</v>
+        <v>154463</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>205542</v>
+        <v>203613</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.233356402194768</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2019976616871129</v>
+        <v>0.2017553236777573</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.268473315817421</v>
+        <v>0.2659525933983229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>418</v>
@@ -3979,19 +3979,19 @@
         <v>450664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>414212</v>
+        <v>414969</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>488922</v>
+        <v>490723</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.234631177731159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2156529887429733</v>
+        <v>0.216046741372131</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2545496333445853</v>
+        <v>0.2554871355288528</v>
       </c>
     </row>
     <row r="18">
@@ -4008,19 +4008,19 @@
         <v>74741</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59244</v>
+        <v>58665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94331</v>
+        <v>95151</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06470273286274988</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05128759274023836</v>
+        <v>0.05078648760718105</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0816618612003423</v>
+        <v>0.08237165323333333</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>44</v>
@@ -4029,19 +4029,19 @@
         <v>49795</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>37521</v>
+        <v>37452</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>65578</v>
+        <v>67688</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06504044376301865</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04900897089418203</v>
+        <v>0.0489183914556764</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08565545645512028</v>
+        <v>0.08841239843713455</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>114</v>
@@ -4050,19 +4050,19 @@
         <v>124535</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>102916</v>
+        <v>103416</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>149745</v>
+        <v>148586</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06483734297641842</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05358181882094683</v>
+        <v>0.05384173543688688</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0779623385503789</v>
+        <v>0.07735905595531922</v>
       </c>
     </row>
     <row r="19">
@@ -4154,19 +4154,19 @@
         <v>368534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>345567</v>
+        <v>349781</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>387113</v>
+        <v>388920</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7217712511508724</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6767908881846333</v>
+        <v>0.6850448809461388</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7581592054904485</v>
+        <v>0.7616982217049714</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>509</v>
@@ -4175,19 +4175,19 @@
         <v>551894</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>525546</v>
+        <v>522434</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>575996</v>
+        <v>575607</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7256362302402127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6909927003513053</v>
+        <v>0.6869014478957153</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7573249531675854</v>
+        <v>0.7568133562926304</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>861</v>
@@ -4196,19 +4196,19 @@
         <v>920428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>885359</v>
+        <v>885214</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>949441</v>
+        <v>952015</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7240837576822602</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6964954481883223</v>
+        <v>0.6963815907269649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7469080058779681</v>
+        <v>0.7489331983148541</v>
       </c>
     </row>
     <row r="21">
@@ -4225,19 +4225,19 @@
         <v>111308</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94490</v>
+        <v>92552</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>132616</v>
+        <v>130380</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2179960292964454</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1850585997650112</v>
+        <v>0.1812618210290345</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2597288115275463</v>
+        <v>0.2553483676293428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>146</v>
@@ -4246,19 +4246,19 @@
         <v>158176</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>136856</v>
+        <v>136254</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>184359</v>
+        <v>183892</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2079714545733617</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1799392325827167</v>
+        <v>0.1791475185213838</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2423967046157161</v>
+        <v>0.2417832958637501</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>252</v>
@@ -4267,19 +4267,19 @@
         <v>269484</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>239961</v>
+        <v>238168</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>300382</v>
+        <v>301383</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2119980939944273</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1887727200534105</v>
+        <v>0.1873628018847516</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2363047977745824</v>
+        <v>0.2370926695215096</v>
       </c>
     </row>
     <row r="22">
@@ -4296,19 +4296,19 @@
         <v>30755</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20808</v>
+        <v>19763</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43672</v>
+        <v>41867</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06023271955268217</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04075278751932088</v>
+        <v>0.03870506269949076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08553136554733098</v>
+        <v>0.08199594130931528</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -4317,19 +4317,19 @@
         <v>50496</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37852</v>
+        <v>38669</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>65217</v>
+        <v>66446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06639231518642552</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0497687513192696</v>
+        <v>0.05084184291011717</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08574756518221574</v>
+        <v>0.0873637991144094</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>76</v>
@@ -4338,19 +4338,19 @@
         <v>81250</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66125</v>
+        <v>65891</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>102045</v>
+        <v>101340</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06391814832331247</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05201936696008087</v>
+        <v>0.05183515443349448</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08027685961224032</v>
+        <v>0.07972198566473489</v>
       </c>
     </row>
     <row r="23">
@@ -4442,19 +4442,19 @@
         <v>173786</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>157828</v>
+        <v>159146</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>189463</v>
+        <v>188389</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6511705000480194</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5913777070177494</v>
+        <v>0.5963177597788132</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7099146872395156</v>
+        <v>0.7058888127180656</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>714</v>
@@ -4463,19 +4463,19 @@
         <v>761875</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>728248</v>
+        <v>731103</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>792160</v>
+        <v>788190</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6874579940106957</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6571154171659708</v>
+        <v>0.6596912760889748</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7147842169833394</v>
+        <v>0.7112019173786943</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>885</v>
@@ -4484,19 +4484,19 @@
         <v>935661</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>898592</v>
+        <v>902224</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>967775</v>
+        <v>972911</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6804154125294141</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6534589815431833</v>
+        <v>0.656099871513864</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7037684780641237</v>
+        <v>0.7075035244363839</v>
       </c>
     </row>
     <row r="25">
@@ -4513,19 +4513,19 @@
         <v>80775</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65939</v>
+        <v>66626</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>96086</v>
+        <v>95063</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3026634873750559</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2470706018432286</v>
+        <v>0.2496455034042238</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3600316326576814</v>
+        <v>0.3561981102465988</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>270</v>
@@ -4534,19 +4534,19 @@
         <v>284578</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>255250</v>
+        <v>258696</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>316097</v>
+        <v>313203</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2567810147430069</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2303179177655772</v>
+        <v>0.2334277418721325</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2852215175927548</v>
+        <v>0.2826101348631008</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>351</v>
@@ -4555,19 +4555,19 @@
         <v>365353</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>335355</v>
+        <v>331493</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>398849</v>
+        <v>399139</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2656857644732098</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2438714507780128</v>
+        <v>0.2410624548363411</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2900439400970398</v>
+        <v>0.2902546953732735</v>
       </c>
     </row>
     <row r="26">
@@ -4584,19 +4584,19 @@
         <v>12321</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7215</v>
+        <v>7361</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20814</v>
+        <v>21323</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04616601257692475</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02703414733006069</v>
+        <v>0.0275803261843971</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07798830015259514</v>
+        <v>0.07989603467442602</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>59</v>
@@ -4605,19 +4605,19 @@
         <v>61797</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48402</v>
+        <v>47891</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>77626</v>
+        <v>77818</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0557609912462974</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04367426808557426</v>
+        <v>0.04321328493437511</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07004340358297464</v>
+        <v>0.07021677214221643</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>72</v>
@@ -4626,19 +4626,19 @@
         <v>74118</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>55533</v>
+        <v>59253</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>90950</v>
+        <v>92300</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05389882299737616</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04038390597691077</v>
+        <v>0.04308890327976377</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06613879639389812</v>
+        <v>0.06712089932458705</v>
       </c>
     </row>
     <row r="27">
@@ -4730,19 +4730,19 @@
         <v>2339812</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2277312</v>
+        <v>2278013</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2392150</v>
+        <v>2395670</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.685036505507665</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6667382341428623</v>
+        <v>0.6669433031203111</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7003596523573825</v>
+        <v>0.70139022538281</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2306</v>
@@ -4751,19 +4751,19 @@
         <v>2489623</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2436342</v>
+        <v>2428559</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2549013</v>
+        <v>2544572</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7024352093443347</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6874023027775862</v>
+        <v>0.6852064115353024</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7191919826286315</v>
+        <v>0.7179389847676994</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4493</v>
@@ -4772,19 +4772,19 @@
         <v>4829435</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4741395</v>
+        <v>4751754</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4905486</v>
+        <v>4909802</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6938966893171242</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6812470546979266</v>
+        <v>0.6827354973383809</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7048237610888926</v>
+        <v>0.705443914865563</v>
       </c>
     </row>
     <row r="29">
@@ -4801,19 +4801,19 @@
         <v>859157</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>809388</v>
+        <v>810993</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>913254</v>
+        <v>912296</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2515388613982609</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2369679260547008</v>
+        <v>0.2374378107115577</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2673771772307383</v>
+        <v>0.2670965481535096</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>761</v>
@@ -4822,19 +4822,19 @@
         <v>818806</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>767804</v>
+        <v>764530</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>869251</v>
+        <v>875316</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2310222984532625</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2166321210637148</v>
+        <v>0.2157085769327753</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2452548824240384</v>
+        <v>0.2469662690848858</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1572</v>
@@ -4843,19 +4843,19 @@
         <v>1677963</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1603531</v>
+        <v>1601985</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1751403</v>
+        <v>1752218</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2410909268545448</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2303964504022774</v>
+        <v>0.2301743353644699</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2516428196568374</v>
+        <v>0.2517600058095313</v>
       </c>
     </row>
     <row r="30">
@@ -4872,19 +4872,19 @@
         <v>216633</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>188162</v>
+        <v>188614</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>251364</v>
+        <v>246922</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0634246330940741</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0550888629782678</v>
+        <v>0.05522124634652367</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07359287895018987</v>
+        <v>0.07229231433525202</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>218</v>
@@ -4893,19 +4893,19 @@
         <v>235845</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>207299</v>
+        <v>207323</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>266876</v>
+        <v>271935</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06654249220240289</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05848849202469009</v>
+        <v>0.05849517601585509</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07529768486167279</v>
+        <v>0.07672504329096644</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>419</v>
@@ -4914,19 +4914,19 @@
         <v>452478</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>413474</v>
+        <v>409396</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>499657</v>
+        <v>496392</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06501238382833097</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05940825010064327</v>
+        <v>0.05882238290984598</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07179101601233674</v>
+        <v>0.07132202728023265</v>
       </c>
     </row>
     <row r="31">
@@ -5260,19 +5260,19 @@
         <v>318929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>300583</v>
+        <v>300020</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>337411</v>
+        <v>336445</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7432644746960806</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7005089444023224</v>
+        <v>0.699196904611627</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7863362337184251</v>
+        <v>0.7840859619895381</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>231</v>
@@ -5281,19 +5281,19 @@
         <v>241859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>223116</v>
+        <v>222526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>258842</v>
+        <v>256398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6990558521492793</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.644881656263205</v>
+        <v>0.643178592556816</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7481443205743034</v>
+        <v>0.7410787651719283</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>524</v>
@@ -5302,19 +5302,19 @@
         <v>560787</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>536383</v>
+        <v>531814</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>587836</v>
+        <v>586536</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7235304613196915</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6920443342735345</v>
+        <v>0.6861491421909887</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7584285599578655</v>
+        <v>0.7567518699343928</v>
       </c>
     </row>
     <row r="5">
@@ -5331,19 +5331,19 @@
         <v>85932</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69130</v>
+        <v>70103</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102027</v>
+        <v>103194</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2002657671937733</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1611073118305272</v>
+        <v>0.1633751589915418</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2377740128488066</v>
+        <v>0.2404944105969904</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -5352,19 +5352,19 @@
         <v>73990</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59688</v>
+        <v>60683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>91133</v>
+        <v>92890</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2138565708231692</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1725187250667861</v>
+        <v>0.175394916177889</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2634049096049503</v>
+        <v>0.2684836848717813</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>153</v>
@@ -5373,19 +5373,19 @@
         <v>159922</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>138074</v>
+        <v>136741</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>183406</v>
+        <v>185794</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2063324819016212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1781435284046856</v>
+        <v>0.1764242220911074</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2366311125076</v>
+        <v>0.2397122014855515</v>
       </c>
     </row>
     <row r="6">
@@ -5402,19 +5402,19 @@
         <v>24231</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16104</v>
+        <v>14876</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>37890</v>
+        <v>36597</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05646975811014616</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03752994496745497</v>
+        <v>0.03466944962361036</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08830188173832736</v>
+        <v>0.08528943451997874</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -5423,19 +5423,19 @@
         <v>30130</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21382</v>
+        <v>19819</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>42610</v>
+        <v>41517</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08708757702755147</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06180113908547129</v>
+        <v>0.05728387358179399</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1231586487324944</v>
+        <v>0.1199992884427236</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -5444,19 +5444,19 @@
         <v>54361</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40798</v>
+        <v>41410</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>69443</v>
+        <v>70944</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07013705677868731</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05263760486709513</v>
+        <v>0.05342732213280142</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08959580173271604</v>
+        <v>0.09153189378434896</v>
       </c>
     </row>
     <row r="7">
@@ -5548,19 +5548,19 @@
         <v>278690</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>259680</v>
+        <v>259194</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>294963</v>
+        <v>295079</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.738785081671775</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6883906879550752</v>
+        <v>0.6871043258343529</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7819250472979665</v>
+        <v>0.7822321927756254</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>249</v>
@@ -5569,19 +5569,19 @@
         <v>259303</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>240666</v>
+        <v>241426</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>276546</v>
+        <v>278199</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6999288188972994</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6496242134018647</v>
+        <v>0.6516755185453793</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7464724063315877</v>
+        <v>0.7509356831566906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>513</v>
@@ -5590,19 +5590,19 @@
         <v>537992</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>512941</v>
+        <v>514478</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>563896</v>
+        <v>566307</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7195325144416929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6860278741888505</v>
+        <v>0.6880833661302681</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7541772241771173</v>
+        <v>0.7574019394792889</v>
       </c>
     </row>
     <row r="9">
@@ -5619,19 +5619,19 @@
         <v>81619</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>66923</v>
+        <v>66183</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99373</v>
+        <v>98759</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2163650122063077</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1774066201353906</v>
+        <v>0.1754449808261206</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2634304150185791</v>
+        <v>0.2618037648747547</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -5640,19 +5640,19 @@
         <v>88899</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>72352</v>
+        <v>72183</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>107063</v>
+        <v>107712</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2399638229914541</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1952987660132542</v>
+        <v>0.1948416928823757</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2889916386561033</v>
+        <v>0.2907448929652339</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>156</v>
@@ -5661,19 +5661,19 @@
         <v>170518</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>147646</v>
+        <v>145838</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>194425</v>
+        <v>193890</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2280577911497698</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1974675969092434</v>
+        <v>0.1950501011513848</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2600312375281907</v>
+        <v>0.2593167167262194</v>
       </c>
     </row>
     <row r="10">
@@ -5690,19 +5690,19 @@
         <v>16919</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9280</v>
+        <v>10189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27797</v>
+        <v>28579</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04484990612191723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02460009975835576</v>
+        <v>0.02700978764662117</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07368861111836308</v>
+        <v>0.07576059423457625</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -5711,19 +5711,19 @@
         <v>22268</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14027</v>
+        <v>13993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32858</v>
+        <v>34076</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06010735811124659</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03786257493709427</v>
+        <v>0.03777056702240679</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08869182719233541</v>
+        <v>0.09198144682707397</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -5732,19 +5732,19 @@
         <v>39187</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28577</v>
+        <v>28828</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54813</v>
+        <v>53757</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05240969440853736</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.038219919536466</v>
+        <v>0.0385560508662901</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07330934999477287</v>
+        <v>0.07189696775607064</v>
       </c>
     </row>
     <row r="11">
@@ -5836,19 +5836,19 @@
         <v>358008</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>335413</v>
+        <v>336077</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>380267</v>
+        <v>380019</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6859514932996243</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6426598347301565</v>
+        <v>0.6439319182330339</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7286005772811901</v>
+        <v>0.7281255177676482</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>116</v>
@@ -5857,19 +5857,19 @@
         <v>125020</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>112427</v>
+        <v>113304</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>136076</v>
+        <v>136354</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7525738338558819</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6767714973273838</v>
+        <v>0.6820477469839267</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8191256243940391</v>
+        <v>0.8208011774958709</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>460</v>
@@ -5878,19 +5878,19 @@
         <v>483027</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>458503</v>
+        <v>457701</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>506020</v>
+        <v>505661</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7020371081087321</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6663943632824533</v>
+        <v>0.6652277709880113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7354558660917763</v>
+        <v>0.7349338011236524</v>
       </c>
     </row>
     <row r="13">
@@ -5907,19 +5907,19 @@
         <v>136500</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116306</v>
+        <v>116160</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157405</v>
+        <v>158060</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2615382520252891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2228454756116365</v>
+        <v>0.2225659815476328</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3015927192600442</v>
+        <v>0.3028461901563944</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5928,19 +5928,19 @@
         <v>27454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18207</v>
+        <v>18615</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38789</v>
+        <v>38950</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1652644354189384</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1095984896790651</v>
+        <v>0.1120525732449932</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2334967482539105</v>
+        <v>0.2344663484589367</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>155</v>
@@ -5949,19 +5949,19 @@
         <v>163954</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142575</v>
+        <v>142580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>185328</v>
+        <v>187286</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2382934437942612</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2072204383396776</v>
+        <v>0.2072268114514106</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2693576610428687</v>
+        <v>0.2722033680689909</v>
       </c>
     </row>
     <row r="14">
@@ -5978,19 +5978,19 @@
         <v>27406</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18558</v>
+        <v>18955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39106</v>
+        <v>38897</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05251025467508663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03555734760758321</v>
+        <v>0.03631866550360123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07492797438307701</v>
+        <v>0.07452848161000862</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -5999,19 +5999,19 @@
         <v>13649</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7395</v>
+        <v>7317</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>22425</v>
+        <v>21791</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08216173072517965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04451722348891801</v>
+        <v>0.04404842326262393</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1349896344944395</v>
+        <v>0.1311737414334828</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>40</v>
@@ -6020,19 +6020,19 @@
         <v>41055</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30389</v>
+        <v>29232</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55701</v>
+        <v>54412</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05966944809700674</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04416799051492788</v>
+        <v>0.04248558709649265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08095679128009881</v>
+        <v>0.07908371384099218</v>
       </c>
     </row>
     <row r="15">
@@ -6124,19 +6124,19 @@
         <v>800612</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>768999</v>
+        <v>767340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>830224</v>
+        <v>828073</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6970638466696529</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.669539762913404</v>
+        <v>0.6680949296185448</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7228463281866001</v>
+        <v>0.7209735928808426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>574</v>
@@ -6145,19 +6145,19 @@
         <v>593194</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>566417</v>
+        <v>568419</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>617148</v>
+        <v>619421</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7182600203287105</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6858372666389866</v>
+        <v>0.6882622638098275</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7472643102743185</v>
+        <v>0.7500174074675751</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1341</v>
@@ -6166,19 +6166,19 @@
         <v>1393806</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1352118</v>
+        <v>1349614</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1433600</v>
+        <v>1433949</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7059299250498479</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6848161972260399</v>
+        <v>0.6835478990925931</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7260848966138237</v>
+        <v>0.726261636806698</v>
       </c>
     </row>
     <row r="17">
@@ -6195,19 +6195,19 @@
         <v>287025</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>258225</v>
+        <v>261136</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>316471</v>
+        <v>319543</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2499026712404536</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2248275710944084</v>
+        <v>0.2273617927482442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2755397702804199</v>
+        <v>0.278214823338278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>168</v>
@@ -6216,19 +6216,19 @@
         <v>172595</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151431</v>
+        <v>148937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>199005</v>
+        <v>196760</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2089843155536864</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1833586378787321</v>
+        <v>0.1803376754975803</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2409617387822588</v>
+        <v>0.2382434192198262</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>445</v>
@@ -6237,19 +6237,19 @@
         <v>459621</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>422762</v>
+        <v>421896</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>498254</v>
+        <v>495663</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2327870656343187</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2141189118888927</v>
+        <v>0.2136803321227929</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2523538912749872</v>
+        <v>0.251041677457594</v>
       </c>
     </row>
     <row r="18">
@@ -6266,19 +6266,19 @@
         <v>60912</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47332</v>
+        <v>46781</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>78278</v>
+        <v>76857</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05303348208989348</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04121065330288032</v>
+        <v>0.04073019003521305</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06815357536544533</v>
+        <v>0.06691647368195247</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>56</v>
@@ -6287,19 +6287,19 @@
         <v>60087</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46290</v>
+        <v>46309</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75689</v>
+        <v>76951</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07275566411760308</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05604978156873182</v>
+        <v>0.05607315035572379</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09164718809181623</v>
+        <v>0.09317509925035428</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>114</v>
@@ -6308,19 +6308,19 @@
         <v>120999</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>100783</v>
+        <v>100300</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>143820</v>
+        <v>145797</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0612830093158334</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05104425114860683</v>
+        <v>0.05079983461561897</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07284135472988096</v>
+        <v>0.07384269379940853</v>
       </c>
     </row>
     <row r="19">
@@ -6412,19 +6412,19 @@
         <v>440270</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>417046</v>
+        <v>414171</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>462726</v>
+        <v>459436</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7093044088182292</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6718898428296527</v>
+        <v>0.6672585889970956</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7454832688725039</v>
+        <v>0.7401827512439009</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>515</v>
@@ -6433,19 +6433,19 @@
         <v>542175</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>516208</v>
+        <v>517448</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>565426</v>
+        <v>565938</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7364140952927627</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7011450862975942</v>
+        <v>0.7028288886786015</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7679950564896464</v>
+        <v>0.7686906111261854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>942</v>
@@ -6454,19 +6454,19 @@
         <v>982444</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>944299</v>
+        <v>947043</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1014149</v>
+        <v>1016687</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7240133110154312</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6959025625517753</v>
+        <v>0.6979241740578437</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7473783558128696</v>
+        <v>0.7492484512026383</v>
       </c>
     </row>
     <row r="21">
@@ -6483,19 +6483,19 @@
         <v>151060</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>129505</v>
+        <v>132497</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>174060</v>
+        <v>175573</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.243367493635195</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.208641867085874</v>
+        <v>0.213462339917201</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2804227316128726</v>
+        <v>0.2828607209951017</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>137</v>
@@ -6504,19 +6504,19 @@
         <v>145851</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>125932</v>
+        <v>125471</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>170505</v>
+        <v>171039</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1981032796508479</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1710483959953233</v>
+        <v>0.1704228671378503</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2315894845848521</v>
+        <v>0.232315233843739</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>280</v>
@@ -6525,19 +6525,19 @@
         <v>296910</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>267267</v>
+        <v>266490</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>330271</v>
+        <v>330079</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2188084897103648</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1969625515279615</v>
+        <v>0.196389931904959</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2433936886849573</v>
+        <v>0.2432523929179581</v>
       </c>
     </row>
     <row r="22">
@@ -6554,19 +6554,19 @@
         <v>29377</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19993</v>
+        <v>19040</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42535</v>
+        <v>41002</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04732809754657583</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03220965120529143</v>
+        <v>0.03067494803730146</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06852634224852538</v>
+        <v>0.06605687488527652</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>45</v>
@@ -6575,19 +6575,19 @@
         <v>48211</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36159</v>
+        <v>36043</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63642</v>
+        <v>63252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06548262505638944</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04911359637562109</v>
+        <v>0.0489560236516492</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08644238708350452</v>
+        <v>0.08591306422445832</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -6596,19 +6596,19 @@
         <v>77588</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>61013</v>
+        <v>61725</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97965</v>
+        <v>97570</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05717819927420403</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04496377116545695</v>
+        <v>0.04548837630137008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07219543950023535</v>
+        <v>0.07190421893569324</v>
       </c>
     </row>
     <row r="23">
@@ -6700,19 +6700,19 @@
         <v>207347</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>191305</v>
+        <v>192460</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>221094</v>
+        <v>222142</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.725298561565326</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6691839234270855</v>
+        <v>0.6732242117917207</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.773386358538138</v>
+        <v>0.7770512218860783</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>694</v>
@@ -6721,19 +6721,19 @@
         <v>754829</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>719493</v>
+        <v>720116</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>784489</v>
+        <v>783290</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6984281556994323</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6657325527967393</v>
+        <v>0.6663092014603226</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7258718816962626</v>
+        <v>0.7247622865557019</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>891</v>
@@ -6742,19 +6742,19 @@
         <v>962175</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>927847</v>
+        <v>926509</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>992200</v>
+        <v>996590</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7040490225889119</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6789301623242281</v>
+        <v>0.6779510141569717</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7260190844775253</v>
+        <v>0.729230923315659</v>
       </c>
     </row>
     <row r="25">
@@ -6771,19 +6771,19 @@
         <v>64383</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>51130</v>
+        <v>51229</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>79706</v>
+        <v>79192</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2252111421566366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1788531701953411</v>
+        <v>0.179200129749036</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2788107999456129</v>
+        <v>0.2770121370070161</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>249</v>
@@ -6792,19 +6792,19 @@
         <v>269917</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>240934</v>
+        <v>240946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>300923</v>
+        <v>300908</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2497487451856845</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2229312238042443</v>
+        <v>0.2229425390660316</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2784377625231743</v>
+        <v>0.278424280991883</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>310</v>
@@ -6813,19 +6813,19 @@
         <v>334300</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>303180</v>
+        <v>304412</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>366055</v>
+        <v>368197</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2446158640114469</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2218449122172681</v>
+        <v>0.2227462211213015</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2678519993993982</v>
+        <v>0.2694193147374985</v>
       </c>
     </row>
     <row r="26">
@@ -6842,19 +6842,19 @@
         <v>14148</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8350</v>
+        <v>7831</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>23375</v>
+        <v>22830</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04949029627803733</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02920924972842822</v>
+        <v>0.02739361461217969</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08176639327401311</v>
+        <v>0.07986046937262917</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>48</v>
@@ -6863,19 +6863,19 @@
         <v>56008</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>42026</v>
+        <v>43200</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73147</v>
+        <v>72684</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05182309911488319</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03888559617181931</v>
+        <v>0.03997253321518292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06768131296101376</v>
+        <v>0.06725348375722606</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>61</v>
@@ -6884,19 +6884,19 @@
         <v>70156</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>55016</v>
+        <v>54415</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>90599</v>
+        <v>90018</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05133511339964119</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04025691323610466</v>
+        <v>0.03981664557513952</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0662937444034878</v>
+        <v>0.065868234010245</v>
       </c>
     </row>
     <row r="27">
@@ -6988,19 +6988,19 @@
         <v>2403855</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2354853</v>
+        <v>2353579</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2456905</v>
+        <v>2455359</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7104920383375759</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6960090468645866</v>
+        <v>0.695632474308294</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7261718553660513</v>
+        <v>0.7257147528873304</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2379</v>
@@ -7009,19 +7009,19 @@
         <v>2516378</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2460824</v>
+        <v>2458915</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2573839</v>
+        <v>2570633</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7137775171069368</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6980194171088987</v>
+        <v>0.6974777383316776</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7300765171166314</v>
+        <v>0.729167002223889</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4671</v>
@@ -7030,19 +7030,19 @@
         <v>4920232</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4842110</v>
+        <v>4843314</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5003511</v>
+        <v>4996118</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7121685589008405</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7008609565989402</v>
+        <v>0.7010352401632178</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7242225481594727</v>
+        <v>0.7231524765087004</v>
       </c>
     </row>
     <row r="29">
@@ -7059,19 +7059,19 @@
         <v>806520</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>755503</v>
+        <v>756575</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>853612</v>
+        <v>858533</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2383778949967073</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2232993534328495</v>
+        <v>0.2236160699279563</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2522966225032331</v>
+        <v>0.2537512436378215</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>730</v>
@@ -7080,19 +7080,19 @@
         <v>778706</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>729863</v>
+        <v>727403</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>825040</v>
+        <v>830041</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2208821623279907</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2070275338670979</v>
+        <v>0.2063299390955867</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2340247081973715</v>
+        <v>0.2354433114990043</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1499</v>
@@ -7101,19 +7101,19 @@
         <v>1585226</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1510517</v>
+        <v>1516028</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1660115</v>
+        <v>1653358</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2294501381467703</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2186366171983666</v>
+        <v>0.2194342471971933</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2402897565898373</v>
+        <v>0.2393118313085338</v>
       </c>
     </row>
     <row r="30">
@@ -7130,19 +7130,19 @@
         <v>172992</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>147764</v>
+        <v>150799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>201205</v>
+        <v>204807</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05113006666571682</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04367379528793425</v>
+        <v>0.04457074228806417</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05946884194534094</v>
+        <v>0.06053341556784676</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>212</v>
@@ -7151,19 +7151,19 @@
         <v>230353</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>200366</v>
+        <v>202052</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>260395</v>
+        <v>263819</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06534032056507252</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05683432944394047</v>
+        <v>0.05731248784891199</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07386169406846022</v>
+        <v>0.07483289889709262</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>373</v>
@@ -7172,19 +7172,19 @@
         <v>403345</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>366590</v>
+        <v>364817</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>445626</v>
+        <v>443039</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.05838130295238914</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0530612513566321</v>
+        <v>0.05280471110079379</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06450118982998593</v>
+        <v>0.06412680427434191</v>
       </c>
     </row>
     <row r="31">
@@ -7518,19 +7518,19 @@
         <v>396000</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>372491</v>
+        <v>371915</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>418647</v>
+        <v>418197</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.719192496511171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6764958493740511</v>
+        <v>0.6754499393274993</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7603227077999378</v>
+        <v>0.7595039141828984</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>527</v>
@@ -7539,19 +7539,19 @@
         <v>372207</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>355236</v>
+        <v>353119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>387715</v>
+        <v>388855</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7643182096287409</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7294683370001455</v>
+        <v>0.7251212750850463</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7961629347962278</v>
+        <v>0.798504066417159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>930</v>
@@ -7560,19 +7560,19 @@
         <v>768207</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>739753</v>
+        <v>736211</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>793880</v>
+        <v>793225</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7403715050967122</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7129481396476233</v>
+        <v>0.7095343691181177</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7651142465414228</v>
+        <v>0.7644827697483305</v>
       </c>
     </row>
     <row r="5">
@@ -7589,19 +7589,19 @@
         <v>124291</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103927</v>
+        <v>105085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147804</v>
+        <v>146882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.225729905414045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1887451988188651</v>
+        <v>0.190849226954851</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2684327349316989</v>
+        <v>0.2667575755631857</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -7610,19 +7610,19 @@
         <v>82208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>68587</v>
+        <v>66964</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98708</v>
+        <v>98388</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.1688112114551776</v>
+        <v>0.1688112114551777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1408416190639848</v>
+        <v>0.1375087792376541</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2026941115865857</v>
+        <v>0.2020379346170048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>235</v>
@@ -7631,19 +7631,19 @@
         <v>206498</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>182851</v>
+        <v>182832</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>232521</v>
+        <v>232441</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.199016055931115</v>
+        <v>0.1990160559311151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1762251443488244</v>
+        <v>0.1762067293812535</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2240957147591089</v>
+        <v>0.2240182672645764</v>
       </c>
     </row>
     <row r="6">
@@ -7660,19 +7660,19 @@
         <v>30327</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20277</v>
+        <v>20623</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43996</v>
+        <v>43481</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05507759807478403</v>
+        <v>0.05507759807478402</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03682528142604855</v>
+        <v>0.03745479411457013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07990336977744494</v>
+        <v>0.07896765553844</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>43</v>
@@ -7681,19 +7681,19 @@
         <v>32565</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24014</v>
+        <v>24024</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43223</v>
+        <v>43200</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06687057891608141</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04931210828584056</v>
+        <v>0.04933188226381014</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0887564334615196</v>
+        <v>0.0887111104153262</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>73</v>
@@ -7702,19 +7702,19 @@
         <v>62891</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>49500</v>
+        <v>48266</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78902</v>
+        <v>78751</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06061243897217283</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0477060554287701</v>
+        <v>0.04651730710971615</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0760431641297141</v>
+        <v>0.07589706475259192</v>
       </c>
     </row>
     <row r="7">
@@ -7806,19 +7806,19 @@
         <v>371977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>350943</v>
+        <v>352797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>390286</v>
+        <v>390499</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7698017799078304</v>
+        <v>0.7698017799078303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7262709318541322</v>
+        <v>0.7301082570499929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8076911014351632</v>
+        <v>0.8081318783431878</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>429</v>
@@ -7827,19 +7827,19 @@
         <v>301618</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>284404</v>
+        <v>284443</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317653</v>
+        <v>317164</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7128039305384588</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6721233800344254</v>
+        <v>0.672214991062707</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7506986792541741</v>
+        <v>0.7495423924530261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>796</v>
@@ -7848,19 +7848,19 @@
         <v>673595</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>649123</v>
+        <v>650233</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>699772</v>
+        <v>702453</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7431916407976215</v>
+        <v>0.7431916407976216</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7161910673876648</v>
+        <v>0.7174155778751984</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7720732675634644</v>
+        <v>0.7750312872794197</v>
       </c>
     </row>
     <row r="9">
@@ -7877,19 +7877,19 @@
         <v>86745</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>69340</v>
+        <v>70015</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>103955</v>
+        <v>106152</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1795171708425687</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1434978435531999</v>
+        <v>0.1448948205013356</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2151330309674407</v>
+        <v>0.2196791189625318</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>113</v>
@@ -7898,19 +7898,19 @@
         <v>86395</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>70994</v>
+        <v>71722</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>102249</v>
+        <v>102083</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2041748404597298</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1677781303471012</v>
+        <v>0.1694982579230486</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.24164103215686</v>
+        <v>0.2412504421457394</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>201</v>
@@ -7919,19 +7919,19 @@
         <v>173140</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>150624</v>
+        <v>149090</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>198032</v>
+        <v>195749</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1910289037571586</v>
+        <v>0.1910289037571585</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1661864797302394</v>
+        <v>0.1644943496555095</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2184925442716792</v>
+        <v>0.2159744123339575</v>
       </c>
     </row>
     <row r="10">
@@ -7948,19 +7948,19 @@
         <v>24490</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16387</v>
+        <v>16570</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37478</v>
+        <v>36002</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05068104924960097</v>
+        <v>0.05068104924960096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03391192978904282</v>
+        <v>0.03429077076957203</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07755935023941375</v>
+        <v>0.07450579185206355</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -7969,19 +7969,19 @@
         <v>35130</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26481</v>
+        <v>25718</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46268</v>
+        <v>46279</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08302122900181133</v>
+        <v>0.08302122900181132</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06258072721894845</v>
+        <v>0.06077782300471427</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1093426747860331</v>
+        <v>0.1093704077449119</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -7990,19 +7990,19 @@
         <v>59620</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46694</v>
+        <v>46782</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>75229</v>
+        <v>77088</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06577945544521999</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05151839820940159</v>
+        <v>0.05161600530724905</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08300182821941239</v>
+        <v>0.08505261680117718</v>
       </c>
     </row>
     <row r="11">
@@ -8094,19 +8094,19 @@
         <v>344527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>322158</v>
+        <v>323703</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>363054</v>
+        <v>364070</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7305305516216611</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6830999139597217</v>
+        <v>0.6863757259052733</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7698142304116318</v>
+        <v>0.7719696668694874</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>226</v>
@@ -8115,19 +8115,19 @@
         <v>140910</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>129219</v>
+        <v>129923</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149961</v>
+        <v>150883</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7515346744870668</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6891768771443736</v>
+        <v>0.6929315389639884</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7998042517259569</v>
+        <v>0.8047234507351785</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>590</v>
@@ -8136,19 +8136,19 @@
         <v>485437</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>462801</v>
+        <v>462804</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>507609</v>
+        <v>509109</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7365056119077414</v>
+        <v>0.7365056119077417</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7021614384262946</v>
+        <v>0.7021657494931083</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7701442428539879</v>
+        <v>0.7724206084267948</v>
       </c>
     </row>
     <row r="13">
@@ -8165,19 +8165,19 @@
         <v>98696</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81476</v>
+        <v>81341</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>119677</v>
+        <v>118956</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2092743935751268</v>
+        <v>0.2092743935751267</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1727611071238181</v>
+        <v>0.1724749513776105</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2537605293681361</v>
+        <v>0.252233616348893</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>48</v>
@@ -8186,19 +8186,19 @@
         <v>36655</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28296</v>
+        <v>27657</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48205</v>
+        <v>47821</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1954964885895146</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1509129022832177</v>
+        <v>0.1475051285174805</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2570996494232033</v>
+        <v>0.2550508250426203</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>144</v>
@@ -8207,19 +8207,19 @@
         <v>135351</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>113706</v>
+        <v>113824</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>156207</v>
+        <v>157461</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2053549814943438</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1725140025892039</v>
+        <v>0.1726943151234887</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2369974465603431</v>
+        <v>0.2389003876111139</v>
       </c>
     </row>
     <row r="14">
@@ -8236,19 +8236,19 @@
         <v>28389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18590</v>
+        <v>19214</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42474</v>
+        <v>42425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06019505480321218</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03941748387489902</v>
+        <v>0.0407417031741391</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09006113627582227</v>
+        <v>0.08995731629501541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -8257,19 +8257,19 @@
         <v>9931</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6017</v>
+        <v>5850</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16416</v>
+        <v>15632</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05296883692341862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03209170851968422</v>
+        <v>0.03119921298417528</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08755347812182274</v>
+        <v>0.08337244389647151</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -8278,19 +8278,19 @@
         <v>38320</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28424</v>
+        <v>28203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>52608</v>
+        <v>53641</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05813940659791471</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.04312488877925271</v>
+        <v>0.04278971094131553</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07981674251426424</v>
+        <v>0.08138427780563399</v>
       </c>
     </row>
     <row r="15">
@@ -8382,19 +8382,19 @@
         <v>886342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>856957</v>
+        <v>857035</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>916720</v>
+        <v>917023</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7852115709484628</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7591790504414163</v>
+        <v>0.7592481179215402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8121231525323969</v>
+        <v>0.8123916993466265</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>987</v>
@@ -8403,19 +8403,19 @@
         <v>675982</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>654800</v>
+        <v>655105</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>695992</v>
+        <v>697777</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7849206366331831</v>
+        <v>0.7849206366331833</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7603252110425732</v>
+        <v>0.7606792469523234</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8081552454146006</v>
+        <v>0.810227394468237</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1873</v>
@@ -8424,19 +8424,19 @@
         <v>1562324</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1525822</v>
+        <v>1520882</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1596828</v>
+        <v>1598235</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7850856637720796</v>
+        <v>0.7850856637720797</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7667429744890255</v>
+        <v>0.7642604594202136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.802424338080641</v>
+        <v>0.8031312848436052</v>
       </c>
     </row>
     <row r="17">
@@ -8453,19 +8453,19 @@
         <v>195677</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168891</v>
+        <v>168166</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>222285</v>
+        <v>224549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1733501569005209</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1496204595178779</v>
+        <v>0.1489783555904825</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1969228291029608</v>
+        <v>0.1989284242176358</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>178</v>
@@ -8474,19 +8474,19 @@
         <v>134830</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116281</v>
+        <v>116677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>153128</v>
+        <v>153446</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1565588429896589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1350207464115649</v>
+        <v>0.135479967673291</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1778053710024839</v>
+        <v>0.1781742131670784</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>359</v>
@@ -8495,19 +8495,19 @@
         <v>330507</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>296753</v>
+        <v>299288</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>360955</v>
+        <v>366604</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1660834069461621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1491215310370555</v>
+        <v>0.1503953970287143</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1813840707383788</v>
+        <v>0.1842227740251015</v>
       </c>
     </row>
     <row r="18">
@@ -8524,19 +8524,19 @@
         <v>46775</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35463</v>
+        <v>34143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>60613</v>
+        <v>62098</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0414382721510164</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.031416997620245</v>
+        <v>0.03024715666390716</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05369735863562319</v>
+        <v>0.0550128090834617</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>65</v>
@@ -8545,19 +8545,19 @@
         <v>50399</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>38426</v>
+        <v>38449</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63174</v>
+        <v>63722</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05852052037715798</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04461809345693075</v>
+        <v>0.04464582497795741</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07335436026783068</v>
+        <v>0.07399126922831448</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>113</v>
@@ -8566,19 +8566,19 @@
         <v>97174</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>81568</v>
+        <v>79555</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>118320</v>
+        <v>116290</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04883092928175822</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04098862234937115</v>
+        <v>0.03997720888144297</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05945736149279133</v>
+        <v>0.05843717071305585</v>
       </c>
     </row>
     <row r="19">
@@ -8670,19 +8670,19 @@
         <v>452535</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>431475</v>
+        <v>432156</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>474202</v>
+        <v>472423</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7967672200609381</v>
+        <v>0.796767220060938</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7596880354184288</v>
+        <v>0.7608858158242811</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8349154430878239</v>
+        <v>0.8317828019860687</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1023</v>
@@ -8691,19 +8691,19 @@
         <v>645775</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>624469</v>
+        <v>623704</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>663650</v>
+        <v>665208</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7787426793002794</v>
+        <v>0.7787426793002793</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7530497275634079</v>
+        <v>0.7521263664358468</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8002981242741182</v>
+        <v>0.8021770002295936</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1460</v>
@@ -8712,19 +8712,19 @@
         <v>1098311</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1069327</v>
+        <v>1068135</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1125260</v>
+        <v>1126943</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7860695866400877</v>
+        <v>0.786069586640088</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7653259931668087</v>
+        <v>0.7644728942091569</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8053575350046041</v>
+        <v>0.8065623838315872</v>
       </c>
     </row>
     <row r="21">
@@ -8741,19 +8741,19 @@
         <v>84237</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>66469</v>
+        <v>68796</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>104583</v>
+        <v>104566</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1483140659518919</v>
+        <v>0.1483140659518918</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1170299344323056</v>
+        <v>0.1211269181408141</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1841358653533461</v>
+        <v>0.1841062634575394</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>198</v>
@@ -8762,19 +8762,19 @@
         <v>135681</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>117994</v>
+        <v>117540</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>155679</v>
+        <v>154414</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1636182240194819</v>
+        <v>0.1636182240194818</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1422891625448872</v>
+        <v>0.1417419314218822</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1877342828720767</v>
+        <v>0.1862085373514498</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>277</v>
@@ -8783,19 +8783,19 @@
         <v>219918</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>194625</v>
+        <v>195196</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>245291</v>
+        <v>246544</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1573971419090426</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1392946950291834</v>
+        <v>0.1397029927267114</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1755569339771121</v>
+        <v>0.1764535499702624</v>
       </c>
     </row>
     <row r="22">
@@ -8812,19 +8812,19 @@
         <v>31192</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21473</v>
+        <v>21685</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43490</v>
+        <v>44761</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05491871398717008</v>
+        <v>0.05491871398717007</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03780644504990925</v>
+        <v>0.03817939385497431</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07657180048474709</v>
+        <v>0.07881044525584091</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -8833,19 +8833,19 @@
         <v>47797</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38154</v>
+        <v>37629</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60495</v>
+        <v>62011</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05763909668023878</v>
+        <v>0.05763909668023877</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04600948699906378</v>
+        <v>0.04537686229905601</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07295149858790226</v>
+        <v>0.07477972006326607</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>98</v>
@@ -8854,19 +8854,19 @@
         <v>78989</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64803</v>
+        <v>64016</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>97071</v>
+        <v>95982</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.05653327145086938</v>
+        <v>0.05653327145086937</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04637990094206958</v>
+        <v>0.04581687115778971</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06947450607257802</v>
+        <v>0.06869517230464722</v>
       </c>
     </row>
     <row r="23">
@@ -8958,19 +8958,19 @@
         <v>197281</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>176386</v>
+        <v>175953</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>211171</v>
+        <v>211395</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8316088166104351</v>
+        <v>0.8316088166104348</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7435289838051725</v>
+        <v>0.7417025051048846</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8901600632074785</v>
+        <v>0.8911052132830868</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>931</v>
@@ -8979,19 +8979,19 @@
         <v>658754</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>633759</v>
+        <v>636281</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>683656</v>
+        <v>683295</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.7802545533893502</v>
+        <v>0.7802545533893503</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7506489826063454</v>
+        <v>0.7536361743952906</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8097488510168733</v>
+        <v>0.8093215051112362</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1021</v>
@@ -9000,19 +9000,19 @@
         <v>856035</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>824937</v>
+        <v>824281</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>882705</v>
+        <v>884931</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7915190543681048</v>
+        <v>0.7915190543681047</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7627646342259433</v>
+        <v>0.7621581100280976</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8161787869553754</v>
+        <v>0.818237408517937</v>
       </c>
     </row>
     <row r="25">
@@ -9029,19 +9029,19 @@
         <v>26678</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14576</v>
+        <v>14485</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>46210</v>
+        <v>44659</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1124564401688398</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.061444362635284</v>
+        <v>0.0610601458066236</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1947901374133339</v>
+        <v>0.1882517271820436</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>180</v>
@@ -9050,19 +9050,19 @@
         <v>144745</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>123890</v>
+        <v>121773</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>168318</v>
+        <v>166741</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1714421104896897</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1467404143650205</v>
+        <v>0.1442322839384635</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.199362255262214</v>
+        <v>0.1974950366709545</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>194</v>
@@ -9071,19 +9071,19 @@
         <v>171423</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>146207</v>
+        <v>146493</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>197080</v>
+        <v>200204</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1585036687832788</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1351882106540852</v>
+        <v>0.1354523646144829</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1822268935037011</v>
+        <v>0.1851156375584343</v>
       </c>
     </row>
     <row r="26">
@@ -9100,19 +9100,19 @@
         <v>13269</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5819</v>
+        <v>6103</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>27582</v>
+        <v>27411</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05593474322072525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02453061636730321</v>
+        <v>0.02572648149277054</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1162662468263067</v>
+        <v>0.1155452235224195</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>48</v>
@@ -9121,19 +9121,19 @@
         <v>40782</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>30175</v>
+        <v>30363</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>56027</v>
+        <v>57035</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.0483033361209599</v>
+        <v>0.04830333612095991</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03573989951766034</v>
+        <v>0.03596324047864643</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06636108157796672</v>
+        <v>0.06755412832609593</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>56</v>
@@ -9142,19 +9142,19 @@
         <v>54051</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39612</v>
+        <v>40582</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72125</v>
+        <v>75622</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04997727684861666</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03662666621532982</v>
+        <v>0.03752305247745061</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0666893369471417</v>
+        <v>0.06992266242110395</v>
       </c>
     </row>
     <row r="27">
@@ -9246,19 +9246,19 @@
         <v>2648662</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2589498</v>
+        <v>2596908</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2695113</v>
+        <v>2702603</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7700881801168623</v>
+        <v>0.7700881801168624</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7528863163941849</v>
+        <v>0.7550408443828371</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.783593460163151</v>
+        <v>0.7857713358028329</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4123</v>
@@ -9267,19 +9267,19 @@
         <v>2795247</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2747506</v>
+        <v>2747240</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2846502</v>
+        <v>2839120</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7695392081538842</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7563958396461021</v>
+        <v>0.7563226117174369</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.783649710203926</v>
+        <v>0.7816174673708268</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6670</v>
@@ -9288,19 +9288,19 @@
         <v>5443909</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5368753</v>
+        <v>5377845</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5507357</v>
+        <v>5516684</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7698062053896653</v>
+        <v>0.7698062053896654</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7591785475022466</v>
+        <v>0.7604643057840851</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7787781714735962</v>
+        <v>0.7800970258847127</v>
       </c>
     </row>
     <row r="29">
@@ -9317,19 +9317,19 @@
         <v>616323</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>570252</v>
+        <v>570256</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>665967</v>
+        <v>666904</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.1791936410275575</v>
+        <v>0.1791936410275576</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1657984513685127</v>
+        <v>0.1657998352332369</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1936271812333989</v>
+        <v>0.1938997613370743</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>831</v>
@@ -9338,19 +9338,19 @@
         <v>620514</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>578482</v>
+        <v>582344</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>663276</v>
+        <v>664004</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1708292655374346</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1592576246539626</v>
+        <v>0.1603208467404496</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1826017919771823</v>
+        <v>0.1828021115338635</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1410</v>
@@ -9359,19 +9359,19 @@
         <v>1236838</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1178706</v>
+        <v>1176275</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1310995</v>
+        <v>1304055</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.174897351497204</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1666771723753727</v>
+        <v>0.1663333184482372</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1853837600246007</v>
+        <v>0.1844022719529542</v>
       </c>
     </row>
     <row r="30">
@@ -9388,19 +9388,19 @@
         <v>174441</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>150177</v>
+        <v>148973</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>203916</v>
+        <v>201507</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.05071817885558008</v>
+        <v>0.05071817885558009</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0436633398243978</v>
+        <v>0.04331331167867398</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.05928781257084924</v>
+        <v>0.05858727002128849</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>286</v>
@@ -9409,19 +9409,19 @@
         <v>216603</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>193898</v>
+        <v>192538</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>246631</v>
+        <v>241985</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.05963152630868133</v>
+        <v>0.05963152630868132</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05338069789231389</v>
+        <v>0.05300625370928889</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06789823742619792</v>
+        <v>0.06661920597169099</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>457</v>
@@ -9430,19 +9430,19 @@
         <v>391045</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>354242</v>
+        <v>356526</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>428245</v>
+        <v>432470</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.05529644311313073</v>
+        <v>0.05529644311313075</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05009225571531663</v>
+        <v>0.05041517765121301</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06055684871695342</v>
+        <v>0.06115423242990131</v>
       </c>
     </row>
     <row r="31">
